--- a/테이블 제1정규화.xlsx
+++ b/테이블 제1정규화.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C405C1D9-3956-49FA-A1DC-2DC175D5C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A0B9CD-99D3-4BF7-9D8F-3B668679476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C47D2201-2F8B-4813-A516-69F68C4AC34A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C47D2201-2F8B-4813-A516-69F68C4AC34A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="159">
   <si>
     <t>member 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +597,78 @@
   </si>
   <si>
     <t>학생 출결상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약자인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의실이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,20,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 1시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대1,중2,소3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserver_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserver_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +789,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02B6C61-D650-44BD-A703-6A212C3272E2}">
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1477,6 +1559,351 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148E3CAF-C147-4B4D-87C6-B072CFA167A5}">
+  <dimension ref="B3:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDCC4E0-3E9F-4AD7-A00B-EDFFB24D1A72}">
   <dimension ref="B2:K26"/>
   <sheetViews>
@@ -1818,7 +2245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A7B9E7-84C4-4FA6-87FD-A43C21DB5382}">
   <dimension ref="B2:F22"/>
   <sheetViews>
@@ -2070,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762DEE66-B211-4E9E-AAAE-1E5A63ADE95B}">
   <dimension ref="A3:L34"/>
   <sheetViews>
@@ -2585,7 +3012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1EB9BE-E474-4D84-A94C-C5637DD5B1B1}">
   <dimension ref="B1:K13"/>
   <sheetViews>
